--- a/Resource/Endpoints.xlsx
+++ b/Resource/Endpoints.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspace\projectwork\RestAssuredFrameworkRS\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB4161C-8B90-4E60-8855-9E922CA60AF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE272E4E-E8AE-4E01-9769-B8873B4FBD8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3828" yWindow="3828" windowWidth="7500" windowHeight="6000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base URIs" sheetId="1" r:id="rId1"/>
     <sheet name="Diiferent Combination" sheetId="4" r:id="rId2"/>
-    <sheet name="Description" sheetId="2" r:id="rId3"/>
-    <sheet name="RealTime Steps" sheetId="3" r:id="rId4"/>
+    <sheet name="SSL" sheetId="5" r:id="rId3"/>
+    <sheet name="Description" sheetId="2" r:id="rId4"/>
+    <sheet name="RealTime Steps" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>S/N</t>
   </si>
@@ -303,6 +304,78 @@
  "Id": 135,
  "LaptopName": "HUWEAI Laptops"
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSL creation by tomcat </t>
+  </si>
+  <si>
+    <t>keytool -genkey -alias tomcat -keyalg RSA -keystore mykey.keystore</t>
+  </si>
+  <si>
+    <t>adminjava</t>
+  </si>
+  <si>
+    <t>(Find the SSLCERTIFICATE_CMD.png)</t>
+  </si>
+  <si>
+    <t>In command prompt navigate to that bin directory = C:\Program Files\Java\jdk1.8.0_231\bin</t>
+  </si>
+  <si>
+    <t>1- For generating SSL cretificate - keytool -genkey -alias tomcat -keyalg RSA -keystore mykey.keystore and create password - adminjava</t>
+  </si>
+  <si>
+    <t>2- For giving name - localhost</t>
+  </si>
+  <si>
+    <t>3- For Contry code - IN</t>
+  </si>
+  <si>
+    <t>4- Enter Yes</t>
+  </si>
+  <si>
+    <t>5- Give password - adminjava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6- Give the command - explorer . </t>
+  </si>
+  <si>
+    <t>Now stop tomcat running mode from services (win+R - stop tomcat)</t>
+  </si>
+  <si>
+    <t>Clean log directory - C:\Program Files\Apache Software Foundation\Tomcat 8.5\logs\</t>
+  </si>
+  <si>
+    <t>Now again start the tomcat server from services.</t>
+  </si>
+  <si>
+    <t>I want to support the SSL certificate to Tomcat server so we need to go the Tomcat directory and open server.xml file.</t>
+  </si>
+  <si>
+    <t>1- Go to - C:\Program Files\Apache Software Foundation\Tomcat 8.5\</t>
+  </si>
+  <si>
+    <t>2- Under conf folder - \conf\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- Open server.xml </t>
+  </si>
+  <si>
+    <t>4- Most imp - Before any modification take backeup of server.xml (just copy and paste file , it will be created with server-copy.xml name)</t>
+  </si>
+  <si>
+    <t>5- Now search for SSL in server.xml</t>
+  </si>
+  <si>
+    <t>6- Add below in server.xml
+&lt;Connector SSLEnabled="true"  acceptCount="100" clientAuth="false"
+enableLookups="false" disableUploadTimeout="true" maxThreads="25"
+port="8443"   keystoreFile="C:\\Program Files\\Java\jdk1.8.0_231\\bin\\mykey.keystore"
+keystorePass="adminjava"
+protocol="org.apache.coyote.http11.Http11NioProtocol" scheme="https"
+secure="true"  sslProtocol="TLS" /&gt;</t>
+  </si>
+  <si>
+    <t>See the below execution result which throws SSL Certificate issue.</t>
   </si>
 </sst>
 </file>
@@ -470,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -485,6 +558,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -510,6 +586,194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7840979</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E218A3F-A5DA-4B50-8B19-1938270C306B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620" y="335279"/>
+          <a:ext cx="7833359" cy="3929849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7640955</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3422C0-6B61-486D-90A1-78A399FF3733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9576435"/>
+          <a:ext cx="7640955" cy="3823335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8353425</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>34997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F70526-82C4-454E-8B9E-5D6E960F3C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15592425"/>
+          <a:ext cx="8353425" cy="5273747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,6 +1301,148 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96B25A2-DDD4-473B-A23E-32D8E5B261B3}">
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A100" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="122.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="3" max="8" width="8.88671875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5F2E1D-38BF-4A8B-9EBA-00B71A18003F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1095,7 +1501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024437FC-7370-4FA7-BA04-4EF5B7DF6DAA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1118,7 +1524,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1126,31 +1532,31 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1158,19 +1564,19 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1178,13 +1584,13 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="9" t="s">
         <v>53</v>
       </c>

--- a/Resource/Endpoints.xlsx
+++ b/Resource/Endpoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspace\projectwork\RestAssuredFrameworkRS\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE272E4E-E8AE-4E01-9769-B8873B4FBD8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0074F720-3E7D-4CC6-A1FA-A04FF50B2386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base URIs" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SSL" sheetId="5" r:id="rId3"/>
     <sheet name="Description" sheetId="2" r:id="rId4"/>
     <sheet name="RealTime Steps" sheetId="3" r:id="rId5"/>
+    <sheet name="Query Parameter" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -755,6 +756,72 @@
         <a:xfrm>
           <a:off x="0" y="15592425"/>
           <a:ext cx="8353425" cy="5273747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8BEA04-2EC6-434C-A359-4D0B45FA4A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7078980" cy="1478280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1041,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1253,7 +1320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3494C2-A7A2-4537-833D-C720AA382610}">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1304,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96B25A2-DDD4-473B-A23E-32D8E5B261B3}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
@@ -1603,4 +1670,19 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5B3C52-F9B5-4D99-B455-6FA983CD75F7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>